--- a/Momentanee.xlsx
+++ b/Momentanee.xlsx
@@ -3052,12 +3052,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I946"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
   </cols>
